--- a/DataCreated/Dates_compare.xlsx
+++ b/DataCreated/Dates_compare.xlsx
@@ -1224,6 +1224,98 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.010751668528772E-2"/>
+                  <c:y val="0"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-ED17-43B8-9EF3-F9BBD8A03703}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="4.0860201215747641E-2"/>
+                  <c:y val="-1.5159167804411899E-16"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-ED17-43B8-9EF3-F9BBD8A03703}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.010751668528772E-2"/>
+                  <c:y val="-4.1343662521123523E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-ED17-43B8-9EF3-F9BBD8A03703}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.7956979779195739E-2"/>
+                  <c:y val="0"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-ED17-43B8-9EF3-F9BBD8A03703}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -1238,7 +1330,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -1603,7 +1695,7 @@
                 <c:order val="1"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Aggregate!$C$1</c15:sqref>
@@ -1630,7 +1722,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Aggregate!$A$2:$A$12</c15:sqref>
@@ -1677,7 +1769,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Aggregate!$C$2:$C$12</c15:sqref>
@@ -1690,7 +1782,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-15AD-4EEE-8586-1DC30D5FCB83}"/>
                   </c:ext>
@@ -1729,12 +1821,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1788,7 +1877,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2614,7 +2703,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2887,7 +2975,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2925,7 +3012,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
@@ -2939,7 +3025,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5546,7 +5631,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5819,7 +5903,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -5857,7 +5940,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
@@ -5871,7 +5953,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -6648,7 +6729,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -6921,7 +7001,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -6959,7 +7038,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
@@ -6973,7 +7051,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -7018,7 +7095,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -7291,7 +7367,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -7329,7 +7404,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
@@ -7343,7 +7417,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -7388,7 +7461,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -7661,7 +7733,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -7699,7 +7770,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
@@ -7713,7 +7783,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -7758,7 +7827,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -8031,7 +8099,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -8069,7 +8136,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
@@ -8083,7 +8149,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -9746,15 +9811,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>409573</xdr:colOff>
+      <xdr:colOff>104774</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:rowOff>100012</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>314324</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>85726</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>523876</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10683,7 +10748,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
